--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/15/seed1/result_data_RandomForest.xlsx
@@ -491,24 +491,24 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>13.0254</v>
+        <v>12.79689999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.29510000000001</v>
+        <v>-21.37440000000002</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.4149</v>
+        <v>-11.17599999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.21320000000001</v>
+        <v>12.4406</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.90980000000001</v>
+        <v>-14.57100000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.6126</v>
+        <v>-21.56830000000001</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.71080000000001</v>
+        <v>-21.505</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.54230000000001</v>
+        <v>-12.0579</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.75210000000001</v>
+        <v>13.10330000000001</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.30149999999999</v>
+        <v>13.3214</v>
       </c>
     </row>
     <row r="12">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>12.51260000000001</v>
+        <v>12.43270000000001</v>
       </c>
     </row>
     <row r="15">
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.4822</v>
+        <v>-20.48539999999998</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.2609</v>
+        <v>-12.18420000000001</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>13.2795</v>
+        <v>13.1087</v>
       </c>
     </row>
     <row r="19">
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.75960000000002</v>
+        <v>-22.94010000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.1111</v>
+        <v>-10.87619999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.0981</v>
+        <v>13.25849999999999</v>
       </c>
     </row>
   </sheetData>
